--- a/biology/Botanique/Forêt_syndicale/Forêt_syndicale.xlsx
+++ b/biology/Botanique/Forêt_syndicale/Forêt_syndicale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_syndicale</t>
+          <t>Forêt_syndicale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une forêt syndicale est une forêt détenue par un syndicat de propriétaires. Il s'agit dans la majorité des cas de syndicats de communes. Le statut de forêt syndicale est rare en France.
 </t>
